--- a/Reports/heart/heart_tabfairgan_10_02.xlsx
+++ b/Reports/heart/heart_tabfairgan_10_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0245</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0788</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8496</v>
+        <v>1.1229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.2041</v>
+        <v>0.9336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1802</v>
+        <v>-0.1002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.3803</v>
+        <v>0.8477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1577</v>
+        <v>-0.0481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7288</v>
+        <v>0.8973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.102</v>
+        <v>-0.0363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0042</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6609</v>
+        <v>0.5913</v>
       </c>
     </row>
     <row r="13">
